--- a/TestData/Litigation_Notice_Upload_Format (1).xlsx
+++ b/TestData/Litigation_Notice_Upload_Format (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Snehal Patil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Litigation-Project-main (1)\Litigation-Project-main\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Type of Notice (Inward/ Outward)</t>
   </si>
@@ -124,30 +124,6 @@
     <t xml:space="preserve">Financial Year </t>
   </si>
   <si>
-    <t>Inward</t>
-  </si>
-  <si>
-    <t>Section 15A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax Laws </t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Won</t>
-  </si>
-  <si>
     <t>Ref No.( refer sheet Legal Notice)</t>
   </si>
   <si>
@@ -172,12 +148,6 @@
     <t>Remark</t>
   </si>
   <si>
-    <t>Courier</t>
-  </si>
-  <si>
-    <t>Received</t>
-  </si>
-  <si>
     <t>Payment Type</t>
   </si>
   <si>
@@ -199,12 +169,6 @@
     <t>Contact Person of Department/Authorized Represtative</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>15-Dec-2022</t>
-  </si>
-  <si>
     <t>Legal Notice Date    (dd-MMM-yyyy)</t>
   </si>
   <si>
@@ -224,59 +188,13 @@
   </si>
   <si>
     <t>Response /Receipt  date    (dd-MMM-yyyy)</t>
-  </si>
-  <si>
-    <t>12-Mar-2023</t>
-  </si>
-  <si>
-    <t>Notice290623</t>
-  </si>
-  <si>
-    <t>Delhi Value Added Tax Act, 2004</t>
-  </si>
-  <si>
-    <t>MrSawant,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A pvt ltd</t>
-  </si>
-  <si>
-    <t>performer@avantis.info</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-performer@avantis.info</t>
-  </si>
-  <si>
-    <t>2022-2023</t>
-  </si>
-  <si>
-    <t>15-02-2023</t>
-  </si>
-  <si>
-    <t>21-jun-2023</t>
-  </si>
-  <si>
-    <t>Test test</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>24-07-2023</t>
-  </si>
-  <si>
-    <t>Test Fee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -293,28 +211,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -323,12 +219,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
@@ -420,11 +310,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -433,87 +322,51 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -894,20 +747,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AL1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20" style="26" customWidth="1"/>
+    <col min="2" max="2" width="20" style="16" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="23.5703125" customWidth="1"/>
@@ -938,215 +791,141 @@
     <col min="39" max="1024" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="23" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:38" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AA1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AB1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AC1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF1" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AE1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AH1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="22" t="s">
+      <c r="AI1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL1" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2">
-        <v>548724</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>55</v>
-      </c>
-      <c r="AC2">
-        <v>2023</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE2" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ2" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>75</v>
+      <c r="AK1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="16" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
@@ -1156,60 +935,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>548724</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="34">
-        <v>7634563</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="34"/>
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1219,10 +971,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,7 +982,7 @@
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="16" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
@@ -1240,54 +992,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>548724</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="13">
-        <v>200000</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="12"/>
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
